--- a/mbs-perturbation/chatty/decisionTree/chatty-decisionTree-results.xlsx
+++ b/mbs-perturbation/chatty/decisionTree/chatty-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1764705882352942</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8152173913043479</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.948051948051948</v>
+        <v>0.6831730769230768</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.491304347826087</v>
+        <v>0.9879227053140096</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.831159420289855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3533333333333333</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3686274509803922</v>
+        <v>0.35</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8171466214944475</v>
+        <v>0.7742191564474172</v>
       </c>
     </row>
   </sheetData>
